--- a/Data.xlsx
+++ b/Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\DOD_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\DOD_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{423D7006-03C2-4DB1-9B2E-9C09FD786221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE3A975-7A8A-435E-907F-81E038B17D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -318,7 +318,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K976"/>
+  <dimension ref="A1:K974"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
@@ -1345,8 +1345,6 @@
     <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
